--- a/DocumentTemplates/Report.xlsx
+++ b/DocumentTemplates/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoma\Documents\MAppBnB\DocumentTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoma\Documents\MAppBnB_All\MAppBnB\MAppBnB\DocumentTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D729FFC4-C983-49B3-80D7-E1A32BD9974C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE47C7F5-4AC4-4DBC-B2F8-23A01E919CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2295" windowWidth="15360" windowHeight="9075" xr2:uid="{676AD167-140D-4F14-A3F2-33A003B09E02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{676AD167-140D-4F14-A3F2-33A003B09E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Report" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Data arrivo</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>Canale</t>
   </si>
 </sst>
 </file>
@@ -611,13 +614,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +653,7 @@
     <col min="28" max="28" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -688,7 +691,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -772,6 +775,9 @@
       </c>
       <c r="AB2" s="10" t="s">
         <v>27</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
